--- a/results/I3_N5_M3_T45_C150_DepCentral_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C150_DepCentral_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.72746666901232</v>
+        <v>28.51204269596068</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1930000782012939</v>
+        <v>0.2249999046325684</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.72746666901232</v>
+        <v>28.51204269596068</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>34.28956874289246</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -882,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>39.23516695818518</v>
+        <v>31.61595173195239</v>
       </c>
     </row>
     <row r="5">
@@ -906,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>35.50084538957403</v>
+        <v>32.46902814888774</v>
       </c>
     </row>
     <row r="8">
@@ -1029,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8559999999997</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>143.6200000000081</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="5">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>56.24800000000688</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>68.54500000000372</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="7">
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>135.7980000000371</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="8">
@@ -1084,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>143.6200000000081</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="9">
@@ -1095,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>135.7980000000411</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="10">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>103.8559999999997</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
